--- a/input_files/UC_case_study_58bus_network_B.xlsx
+++ b/input_files/UC_case_study_58bus_network_B.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="136">
   <si>
     <t>1,2</t>
   </si>
@@ -141,9 +141,6 @@
     <t>Brown coal LV</t>
   </si>
   <si>
-    <t>Sienna</t>
-  </si>
-  <si>
     <t>Brown coal NSA</t>
   </si>
   <si>
@@ -210,9 +207,6 @@
     <t>Wind SESA</t>
   </si>
   <si>
-    <t>MediumSeaGreen</t>
-  </si>
-  <si>
     <t>Number of lines/tx's</t>
   </si>
   <si>
@@ -387,75 +381,39 @@
     <t>Transmission MW limits were developed to match generation and demand (they are not from any other source)</t>
   </si>
   <si>
-    <t>Wind NNS</t>
-  </si>
-  <si>
-    <t>Wind SWNSW</t>
-  </si>
-  <si>
-    <t>Wind MEL</t>
-  </si>
-  <si>
-    <t>Wind NVIC</t>
-  </si>
-  <si>
-    <t>Wind NQ</t>
-  </si>
-  <si>
-    <t>Wind SEQ</t>
-  </si>
-  <si>
-    <t>Wind NSA</t>
-  </si>
-  <si>
-    <t>PaleGreen</t>
-  </si>
-  <si>
-    <t>GreenYellow</t>
-  </si>
-  <si>
-    <t>ForestGreen</t>
+    <t>Max demand</t>
+  </si>
+  <si>
+    <t>Peak in each state</t>
+  </si>
+  <si>
+    <t>CSP &amp; utility storage max charge/discharge rate (MW)</t>
+  </si>
+  <si>
+    <t>Utility storage min charge/discharge rate (MW)</t>
+  </si>
+  <si>
+    <t>CSP &amp; PV solar multiple</t>
+  </si>
+  <si>
+    <t>Moccasin</t>
+  </si>
+  <si>
+    <t>SaddleBrown</t>
   </si>
   <si>
     <t>DarkGreen</t>
   </si>
   <si>
-    <t>Max demand</t>
-  </si>
-  <si>
-    <t>Peak in each state</t>
-  </si>
-  <si>
-    <t>CSP &amp; utility storage max charge/discharge rate (MW)</t>
-  </si>
-  <si>
-    <t>Utility storage min charge/discharge rate (MW)</t>
-  </si>
-  <si>
-    <t>CSP &amp; PV solar multiple</t>
-  </si>
-  <si>
-    <t>Moccasin</t>
-  </si>
-  <si>
-    <t>SaddleBrown</t>
-  </si>
-  <si>
-    <t>LimeGreen</t>
-  </si>
-  <si>
-    <t>Lime</t>
-  </si>
-  <si>
-    <t>YellowGreen</t>
-  </si>
-  <si>
     <t>Utility PV CQ</t>
   </si>
   <si>
     <t>Utility PV CAN</t>
   </si>
   <si>
+    <t>OrangeRed</t>
+  </si>
+  <si>
     <t>Rooftop PV NSW</t>
   </si>
   <si>
@@ -468,10 +426,10 @@
     <t>Rooftop PV SA</t>
   </si>
   <si>
-    <t>Orange</t>
-  </si>
-  <si>
-    <t>OrangeRed</t>
+    <t>Maroon</t>
+  </si>
+  <si>
+    <t>Tomato</t>
   </si>
 </sst>
 </file>
@@ -591,7 +549,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="803">
+  <cellStyleXfs count="771">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1363,40 +1321,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1464,11 +1390,8 @@
     <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="803">
+  <cellStyles count="771">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1854,22 +1777,6 @@
     <cellStyle name="Followed Hyperlink" xfId="766" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="768" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="770" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="772" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="774" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="776" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="778" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="780" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="782" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="784" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="786" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="788" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="790" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="792" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="794" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="796" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="798" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="800" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="802" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2255,22 +2162,6 @@
     <cellStyle name="Hyperlink" xfId="765" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="767" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="769" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="771" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="773" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="775" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="777" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="779" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="781" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="783" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="785" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="787" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="789" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="791" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="793" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="795" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="797" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="799" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="801" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2602,8 +2493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H59"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A51" sqref="A51:XFD51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2615,7 +2506,7 @@
     <col min="5" max="5" width="27.5" style="3" customWidth="1"/>
     <col min="6" max="6" width="26.5" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" style="3" customWidth="1"/>
     <col min="9" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
@@ -2627,7 +2518,7 @@
         <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>34</v>
@@ -2639,10 +2530,10 @@
         <v>11</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2656,16 +2547,16 @@
         <v>0</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F2" s="3">
         <v>101</v>
       </c>
       <c r="G2" s="19"/>
-      <c r="H2" s="23">
+      <c r="H2" s="3">
         <v>12979</v>
       </c>
     </row>
@@ -2680,10 +2571,10 @@
         <v>0.11600000000000001</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F3" s="3">
         <v>102</v>
@@ -2692,7 +2583,6 @@
         <f t="shared" ref="G3:G20" si="0">C3*$H$2/100</f>
         <v>15.05564</v>
       </c>
-      <c r="H3" s="23"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="6">
@@ -2705,16 +2595,15 @@
         <v>0</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F4" s="3">
         <v>201</v>
       </c>
       <c r="G4" s="19"/>
-      <c r="H4" s="23"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="6">
@@ -2727,16 +2616,15 @@
         <v>0</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F5" s="3">
         <v>202</v>
       </c>
       <c r="G5" s="19"/>
-      <c r="H5" s="23"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="6">
@@ -2749,16 +2637,15 @@
         <v>0</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F6" s="3">
         <v>203</v>
       </c>
       <c r="G6" s="19"/>
-      <c r="H6" s="23"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="6">
@@ -2771,16 +2658,15 @@
         <v>0</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F7" s="3">
         <v>204</v>
       </c>
       <c r="G7" s="19"/>
-      <c r="H7" s="23"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="6">
@@ -2793,7 +2679,7 @@
         <v>1.609</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>29</v>
@@ -2805,7 +2691,6 @@
         <f t="shared" si="0"/>
         <v>208.83211</v>
       </c>
-      <c r="H8" s="23"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="6">
@@ -2818,10 +2703,10 @@
         <v>1.345</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F9" s="3">
         <v>206</v>
@@ -2830,7 +2715,6 @@
         <f t="shared" si="0"/>
         <v>174.56755000000001</v>
       </c>
-      <c r="H9" s="23"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="6">
@@ -2843,7 +2727,7 @@
         <v>32.953000000000003</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>29</v>
@@ -2855,7 +2739,6 @@
         <f t="shared" si="0"/>
         <v>4276.9698699999999</v>
       </c>
-      <c r="H10" s="23"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="6">
@@ -2868,10 +2751,10 @@
         <v>1.179</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F11" s="3">
         <v>208</v>
@@ -2880,7 +2763,6 @@
         <f t="shared" si="0"/>
         <v>153.02241000000001</v>
       </c>
-      <c r="H11" s="23"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="6">
@@ -2893,16 +2775,15 @@
         <v>0</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F12" s="3">
         <v>209</v>
       </c>
       <c r="G12" s="19"/>
-      <c r="H12" s="23"/>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="6">
@@ -2915,16 +2796,15 @@
         <v>0</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F13" s="3">
         <v>210</v>
       </c>
       <c r="G13" s="19"/>
-      <c r="H13" s="23"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="6">
@@ -2937,10 +2817,10 @@
         <v>24.69</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F14" s="3">
         <v>211</v>
@@ -2949,7 +2829,6 @@
         <f t="shared" si="0"/>
         <v>3204.5151000000001</v>
       </c>
-      <c r="H14" s="23"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="6">
@@ -2962,10 +2841,10 @@
         <v>16.22</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F15" s="3">
         <v>212</v>
@@ -2974,7 +2853,6 @@
         <f t="shared" si="0"/>
         <v>2105.1937999999996</v>
       </c>
-      <c r="H15" s="23"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="6">
@@ -2990,13 +2868,12 @@
         <v>25</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F16" s="3">
         <v>213</v>
       </c>
       <c r="G16" s="19"/>
-      <c r="H16" s="23"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="6">
@@ -3012,13 +2889,12 @@
         <v>25</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F17" s="3">
         <v>214</v>
       </c>
       <c r="G17" s="19"/>
-      <c r="H17" s="23"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="6">
@@ -3031,10 +2907,10 @@
         <v>0.90500000000000003</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F18" s="3">
         <v>215</v>
@@ -3043,7 +2919,6 @@
         <f t="shared" si="0"/>
         <v>117.45995000000001</v>
       </c>
-      <c r="H18" s="23"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="6">
@@ -3056,10 +2931,10 @@
         <v>10.66</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F19" s="3">
         <v>216</v>
@@ -3068,7 +2943,6 @@
         <f t="shared" si="0"/>
         <v>1383.5614</v>
       </c>
-      <c r="H19" s="23"/>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="6">
@@ -3081,10 +2955,10 @@
         <v>10.323</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F20" s="3">
         <v>217</v>
@@ -3093,7 +2967,6 @@
         <f t="shared" si="0"/>
         <v>1339.8221700000001</v>
       </c>
-      <c r="H20" s="23"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="6">
@@ -3106,7 +2979,7 @@
         <v>0</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -3115,7 +2988,7 @@
         <v>301</v>
       </c>
       <c r="G21" s="18"/>
-      <c r="H21" s="23">
+      <c r="H21" s="3">
         <v>9355</v>
       </c>
     </row>
@@ -3133,13 +3006,12 @@
         <v>26</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F22" s="3">
         <v>302</v>
       </c>
       <c r="G22" s="18"/>
-      <c r="H22" s="23"/>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="6">
@@ -3152,7 +3024,7 @@
         <v>0</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>30</v>
@@ -3161,7 +3033,6 @@
         <v>303</v>
       </c>
       <c r="G23" s="18"/>
-      <c r="H23" s="23"/>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="6">
@@ -3174,7 +3045,7 @@
         <v>0</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -3183,7 +3054,6 @@
         <v>304</v>
       </c>
       <c r="G24" s="18"/>
-      <c r="H24" s="23"/>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="6">
@@ -3196,16 +3066,15 @@
         <v>0</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F25" s="3">
         <v>305</v>
       </c>
       <c r="G25" s="18"/>
-      <c r="H25" s="23"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="6">
@@ -3218,10 +3087,10 @@
         <v>37.71</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F26" s="3">
         <v>306</v>
@@ -3230,7 +3099,6 @@
         <f t="shared" ref="G26:G33" si="1">C26*$H$21/100</f>
         <v>3527.7705000000001</v>
       </c>
-      <c r="H26" s="23"/>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="6">
@@ -3243,10 +3111,10 @@
         <v>8.85</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F27" s="3">
         <v>307</v>
@@ -3255,7 +3123,6 @@
         <f t="shared" si="1"/>
         <v>827.91750000000002</v>
       </c>
-      <c r="H27" s="23"/>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="6">
@@ -3268,10 +3135,10 @@
         <v>8.9499999999999993</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F28" s="3">
         <v>308</v>
@@ -3280,7 +3147,6 @@
         <f t="shared" si="1"/>
         <v>837.27250000000004</v>
       </c>
-      <c r="H28" s="23"/>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="6">
@@ -3293,7 +3159,7 @@
         <v>3.79</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>30</v>
@@ -3305,7 +3171,6 @@
         <f t="shared" si="1"/>
         <v>354.55449999999996</v>
       </c>
-      <c r="H29" s="23"/>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="6">
@@ -3318,16 +3183,15 @@
         <v>0</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F30" s="3">
         <v>311</v>
       </c>
       <c r="G30" s="18"/>
-      <c r="H30" s="23"/>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="6">
@@ -3343,7 +3207,7 @@
         <v>26</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F31" s="3">
         <v>312</v>
@@ -3352,7 +3216,6 @@
         <f t="shared" si="1"/>
         <v>373.26450000000006</v>
       </c>
-      <c r="H31" s="23"/>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="6">
@@ -3368,7 +3231,7 @@
         <v>26</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F32" s="3">
         <v>313</v>
@@ -3377,7 +3240,6 @@
         <f t="shared" si="1"/>
         <v>3023.5359999999996</v>
       </c>
-      <c r="H32" s="23"/>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="6">
@@ -3390,10 +3252,10 @@
         <v>4.3899999999999997</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F33" s="3">
         <v>314</v>
@@ -3402,7 +3264,6 @@
         <f t="shared" si="1"/>
         <v>410.68449999999996</v>
       </c>
-      <c r="H33" s="23"/>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="6">
@@ -3415,16 +3276,15 @@
         <v>0</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F34" s="3">
         <v>315</v>
       </c>
       <c r="G34" s="18"/>
-      <c r="H34" s="23"/>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="6">
@@ -3437,16 +3297,16 @@
         <v>0</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F35" s="3">
         <v>401</v>
       </c>
       <c r="G35" s="17"/>
-      <c r="H35" s="23">
+      <c r="H35" s="3">
         <v>8644</v>
       </c>
     </row>
@@ -3464,13 +3324,12 @@
         <v>27</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F36" s="3">
         <v>402</v>
       </c>
       <c r="G36" s="17"/>
-      <c r="H36" s="23"/>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="6">
@@ -3486,13 +3345,12 @@
         <v>27</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F37" s="3">
         <v>403</v>
       </c>
       <c r="G37" s="17"/>
-      <c r="H37" s="23"/>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="6">
@@ -3508,13 +3366,12 @@
         <v>27</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F38" s="3">
         <v>404</v>
       </c>
       <c r="G38" s="17"/>
-      <c r="H38" s="23"/>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="6">
@@ -3530,7 +3387,7 @@
         <v>27</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F39" s="3">
         <v>405</v>
@@ -3539,7 +3396,6 @@
         <f t="shared" ref="G39:G46" si="2">C39*$H$35/100</f>
         <v>1503.1916000000001</v>
       </c>
-      <c r="H39" s="23"/>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="6">
@@ -3555,7 +3411,7 @@
         <v>27</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F40" s="3">
         <v>406</v>
@@ -3564,7 +3420,6 @@
         <f t="shared" si="2"/>
         <v>1420.2091999999998</v>
       </c>
-      <c r="H40" s="23"/>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="6">
@@ -3580,7 +3435,7 @@
         <v>27</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F41" s="3">
         <v>407</v>
@@ -3589,7 +3444,6 @@
         <f t="shared" si="2"/>
         <v>50.135199999999998</v>
       </c>
-      <c r="H41" s="23"/>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="6">
@@ -3605,7 +3459,7 @@
         <v>27</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F42" s="3">
         <v>408</v>
@@ -3614,7 +3468,6 @@
         <f t="shared" si="2"/>
         <v>286.98079999999999</v>
       </c>
-      <c r="H42" s="23"/>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="6">
@@ -3627,10 +3480,10 @@
         <v>5.78</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F43" s="3">
         <v>409</v>
@@ -3639,9 +3492,8 @@
         <f t="shared" si="2"/>
         <v>499.6232</v>
       </c>
-      <c r="H43" s="23"/>
-    </row>
-    <row r="44" spans="1:8">
+    </row>
+    <row r="44" spans="1:8" ht="16" customHeight="1">
       <c r="A44" s="6">
         <v>43</v>
       </c>
@@ -3652,10 +3504,10 @@
         <v>5.77</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F44" s="3">
         <v>410</v>
@@ -3664,7 +3516,6 @@
         <f t="shared" si="2"/>
         <v>498.75879999999995</v>
       </c>
-      <c r="H44" s="23"/>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="6">
@@ -3677,10 +3528,10 @@
         <v>33.979999999999997</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F45" s="3">
         <v>411</v>
@@ -3689,7 +3540,6 @@
         <f t="shared" si="2"/>
         <v>2937.2312000000002</v>
       </c>
-      <c r="H45" s="23"/>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="6">
@@ -3702,10 +3552,10 @@
         <v>16.75</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F46" s="3">
         <v>412</v>
@@ -3714,7 +3564,6 @@
         <f t="shared" si="2"/>
         <v>1447.87</v>
       </c>
-      <c r="H46" s="23"/>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="6">
@@ -3727,7 +3576,7 @@
         <v>0</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E47" s="7" t="s">
         <v>31</v>
@@ -3736,7 +3585,6 @@
         <v>413</v>
       </c>
       <c r="G47" s="17"/>
-      <c r="H47" s="23"/>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="6">
@@ -3749,7 +3597,7 @@
         <v>0</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E48" s="7" t="s">
         <v>31</v>
@@ -3758,7 +3606,6 @@
         <v>414</v>
       </c>
       <c r="G48" s="17"/>
-      <c r="H48" s="23"/>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="6">
@@ -3771,7 +3618,7 @@
         <v>0</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E49" s="7" t="s">
         <v>31</v>
@@ -3780,7 +3627,6 @@
         <v>415</v>
       </c>
       <c r="G49" s="17"/>
-      <c r="H49" s="23"/>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="6">
@@ -3793,7 +3639,7 @@
         <v>0</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E50" s="7" t="s">
         <v>31</v>
@@ -3802,7 +3648,6 @@
         <v>416</v>
       </c>
       <c r="G50" s="17"/>
-      <c r="H50" s="23"/>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="6">
@@ -3824,7 +3669,7 @@
         <v>501</v>
       </c>
       <c r="G51" s="16"/>
-      <c r="H51" s="23">
+      <c r="H51" s="3">
         <v>3110</v>
       </c>
     </row>
@@ -3839,7 +3684,7 @@
         <v>0</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E52" s="7" t="s">
         <v>32</v>
@@ -3848,7 +3693,6 @@
         <v>502</v>
       </c>
       <c r="G52" s="16"/>
-      <c r="H52" s="23"/>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="6">
@@ -3861,7 +3705,7 @@
         <v>0</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E53" s="7" t="s">
         <v>32</v>
@@ -3870,7 +3714,6 @@
         <v>503</v>
       </c>
       <c r="G53" s="16"/>
-      <c r="H53" s="23"/>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="6">
@@ -3895,7 +3738,6 @@
         <f t="shared" ref="G54:G59" si="3">C54*$H$51/100</f>
         <v>267.64659999999998</v>
       </c>
-      <c r="H54" s="23"/>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="6">
@@ -3908,7 +3750,7 @@
         <v>0</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E55" s="7" t="s">
         <v>32</v>
@@ -3917,7 +3759,6 @@
         <v>505</v>
       </c>
       <c r="G55" s="16"/>
-      <c r="H55" s="23"/>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="6">
@@ -3930,7 +3771,7 @@
         <v>0</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E56" s="7" t="s">
         <v>32</v>
@@ -3939,7 +3780,6 @@
         <v>506</v>
       </c>
       <c r="G56" s="16"/>
-      <c r="H56" s="23"/>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="6">
@@ -3964,7 +3804,6 @@
         <f t="shared" si="3"/>
         <v>987.08290000000011</v>
       </c>
-      <c r="H57" s="23"/>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="6">
@@ -3980,7 +3819,7 @@
         <v>28</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F58" s="3">
         <v>508</v>
@@ -3989,7 +3828,6 @@
         <f t="shared" si="3"/>
         <v>1545.7321999999999</v>
       </c>
-      <c r="H58" s="23"/>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="6">
@@ -4002,10 +3840,10 @@
         <v>9.9529999999999994</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F59" s="3">
         <v>509</v>
@@ -4014,7 +3852,6 @@
         <f t="shared" si="3"/>
         <v>309.53829999999999</v>
       </c>
-      <c r="H59" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4031,8 +3868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N77"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4062,19 +3899,19 @@
         <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>6</v>
@@ -4095,7 +3932,7 @@
         <v>13</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -4137,7 +3974,7 @@
         <v>0.81699999999999995</v>
       </c>
       <c r="M2" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -4179,7 +4016,7 @@
         <v>0.76</v>
       </c>
       <c r="M3" s="13" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -4221,7 +4058,7 @@
         <v>0.437</v>
       </c>
       <c r="M4" s="14" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -6898,7 +6735,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6919,13 +6756,13 @@
         <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>13</v>
@@ -6942,10 +6779,10 @@
         <v>0.2555</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>22</v>
@@ -6962,10 +6799,10 @@
         <v>0.21110000000000001</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>15</v>
@@ -6982,10 +6819,10 @@
         <v>0.36980000000000002</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>16</v>
@@ -7002,10 +6839,10 @@
         <v>0.1636</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>14</v>
@@ -7013,12 +6850,12 @@
     </row>
     <row r="6" spans="1:6">
       <c r="F6" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="F7" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -7034,10 +6871,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T28"/>
+  <dimension ref="A1:T40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:H6"/>
+      <selection activeCell="B16" sqref="B16:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -7076,55 +6913,55 @@
         <v>10</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E1" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="I1" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="J1" s="8" t="s">
         <v>79</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>81</v>
       </c>
       <c r="K1" s="8" t="s">
         <v>37</v>
       </c>
       <c r="L1" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="N1" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="M1" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="N1" s="8" t="s">
+      <c r="O1" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q1" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="O1" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="P1" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q1" s="8" t="s">
+      <c r="R1" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="S1" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="R1" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="S1" s="8" t="s">
-        <v>89</v>
-      </c>
       <c r="T1" s="8" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:20">
@@ -7132,7 +6969,7 @@
         <v>38</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="C2" s="6">
         <v>21</v>
@@ -7191,10 +7028,10 @@
     </row>
     <row r="3" spans="1:20">
       <c r="A3" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>39</v>
+        <v>134</v>
       </c>
       <c r="C3" s="6">
         <v>50</v>
@@ -7253,10 +7090,10 @@
     </row>
     <row r="4" spans="1:20">
       <c r="A4" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>41</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>42</v>
       </c>
       <c r="C4" s="6">
         <v>35</v>
@@ -7315,10 +7152,10 @@
     </row>
     <row r="5" spans="1:20">
       <c r="A5" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>43</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>44</v>
       </c>
       <c r="C5" s="6">
         <v>3</v>
@@ -7377,10 +7214,10 @@
     </row>
     <row r="6" spans="1:20">
       <c r="A6" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>45</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>46</v>
       </c>
       <c r="C6" s="6">
         <v>4</v>
@@ -7439,10 +7276,10 @@
     </row>
     <row r="7" spans="1:20">
       <c r="A7" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>47</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>48</v>
       </c>
       <c r="C7" s="6">
         <v>37</v>
@@ -7505,10 +7342,10 @@
     </row>
     <row r="8" spans="1:20">
       <c r="A8" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>49</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>50</v>
       </c>
       <c r="C8" s="6">
         <v>52</v>
@@ -7567,10 +7404,10 @@
     </row>
     <row r="9" spans="1:20">
       <c r="A9" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>51</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>52</v>
       </c>
       <c r="C9" s="6">
         <v>5</v>
@@ -7633,10 +7470,10 @@
     </row>
     <row r="10" spans="1:20">
       <c r="A10" s="6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C10" s="6">
         <v>24</v>
@@ -7698,10 +7535,10 @@
     </row>
     <row r="11" spans="1:20">
       <c r="A11" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>53</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>54</v>
       </c>
       <c r="C11" s="6">
         <v>20</v>
@@ -7760,10 +7597,10 @@
     </row>
     <row r="12" spans="1:20">
       <c r="A12" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>55</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>56</v>
       </c>
       <c r="C12" s="6">
         <v>34</v>
@@ -7822,10 +7659,10 @@
     </row>
     <row r="13" spans="1:20">
       <c r="A13" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>57</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>58</v>
       </c>
       <c r="C13" s="6">
         <v>51</v>
@@ -7884,10 +7721,10 @@
     </row>
     <row r="14" spans="1:20">
       <c r="A14" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>59</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>60</v>
       </c>
       <c r="C14" s="6">
         <v>6</v>
@@ -7946,30 +7783,28 @@
     </row>
     <row r="15" spans="1:20">
       <c r="A15" s="6" t="s">
-        <v>121</v>
+        <v>60</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C15" s="6">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="D15" s="6">
         <v>7</v>
       </c>
       <c r="E15" s="6">
-        <v>2500</v>
+        <v>2552</v>
       </c>
       <c r="F15" s="6">
         <v>10</v>
       </c>
       <c r="G15" s="6">
-        <f t="shared" ref="G15:G21" si="0">E15</f>
-        <v>2500</v>
+        <v>2552</v>
       </c>
       <c r="H15" s="6">
-        <f t="shared" ref="H15:H21" si="1">E15</f>
-        <v>2500</v>
+        <v>2552</v>
       </c>
       <c r="I15" s="6">
         <v>0</v>
@@ -7978,7 +7813,7 @@
         <v>0</v>
       </c>
       <c r="K15" s="6">
-        <v>3</v>
+        <v>3.86</v>
       </c>
       <c r="L15" s="6">
         <v>0</v>
@@ -8010,30 +7845,28 @@
     </row>
     <row r="16" spans="1:20">
       <c r="A16" s="6" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C16" s="6">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="D16" s="6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E16" s="6">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="F16" s="6">
         <v>10</v>
       </c>
       <c r="G16" s="6">
-        <f t="shared" si="0"/>
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="H16" s="6">
-        <f t="shared" si="1"/>
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="I16" s="6">
         <v>0</v>
@@ -8042,7 +7875,7 @@
         <v>0</v>
       </c>
       <c r="K16" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16" s="6">
         <v>0</v>
@@ -8069,35 +7902,33 @@
         <v>0</v>
       </c>
       <c r="T16" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" s="6" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="C17" s="6">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D17" s="6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E17" s="6">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="F17" s="6">
         <v>10</v>
       </c>
       <c r="G17" s="6">
-        <f t="shared" si="0"/>
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="H17" s="6">
-        <f t="shared" si="1"/>
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="I17" s="6">
         <v>0</v>
@@ -8106,7 +7937,7 @@
         <v>0</v>
       </c>
       <c r="K17" s="6">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="L17" s="6">
         <v>0</v>
@@ -8133,450 +7964,33 @@
         <v>0</v>
       </c>
       <c r="T17" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="C18" s="6">
-        <v>28</v>
-      </c>
-      <c r="D18" s="6">
-        <v>7</v>
-      </c>
-      <c r="E18" s="6">
-        <v>2500</v>
-      </c>
-      <c r="F18" s="6">
-        <v>10</v>
-      </c>
-      <c r="G18" s="6">
-        <f t="shared" si="0"/>
-        <v>2500</v>
-      </c>
-      <c r="H18" s="6">
-        <f t="shared" si="1"/>
-        <v>2500</v>
-      </c>
-      <c r="I18" s="6">
-        <v>0</v>
-      </c>
-      <c r="J18" s="6">
-        <v>0</v>
-      </c>
-      <c r="K18" s="6">
-        <v>3</v>
-      </c>
-      <c r="L18" s="6">
-        <v>0</v>
-      </c>
-      <c r="M18" s="6">
-        <v>0</v>
-      </c>
-      <c r="N18" s="6">
-        <v>0</v>
-      </c>
-      <c r="O18" s="6">
-        <v>0</v>
-      </c>
-      <c r="P18" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="6">
-        <v>0</v>
-      </c>
-      <c r="R18" s="6">
-        <v>0</v>
-      </c>
-      <c r="S18" s="6">
-        <v>0</v>
-      </c>
-      <c r="T18" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:20">
-      <c r="A19" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="C19" s="6">
-        <v>36</v>
-      </c>
-      <c r="D19" s="6">
-        <v>7</v>
-      </c>
-      <c r="E19" s="6">
-        <v>2500</v>
-      </c>
-      <c r="F19" s="6">
-        <v>10</v>
-      </c>
-      <c r="G19" s="6">
-        <f t="shared" si="0"/>
-        <v>2500</v>
-      </c>
-      <c r="H19" s="6">
-        <f t="shared" si="1"/>
-        <v>2500</v>
-      </c>
-      <c r="I19" s="6">
-        <v>0</v>
-      </c>
-      <c r="J19" s="6">
-        <v>0</v>
-      </c>
-      <c r="K19" s="6">
-        <v>3</v>
-      </c>
-      <c r="L19" s="6">
-        <v>0</v>
-      </c>
-      <c r="M19" s="6">
-        <v>0</v>
-      </c>
-      <c r="N19" s="6">
-        <v>0</v>
-      </c>
-      <c r="O19" s="6">
-        <v>0</v>
-      </c>
-      <c r="P19" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="6">
-        <v>0</v>
-      </c>
-      <c r="R19" s="6">
-        <v>0</v>
-      </c>
-      <c r="S19" s="6">
-        <v>0</v>
-      </c>
-      <c r="T19" s="6">
-        <v>0</v>
-      </c>
+      <c r="H19" s="21"/>
     </row>
     <row r="20" spans="1:20">
-      <c r="A20" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C20" s="6">
-        <v>44</v>
-      </c>
-      <c r="D20" s="6">
-        <v>7</v>
-      </c>
-      <c r="E20" s="6">
-        <v>2500</v>
-      </c>
-      <c r="F20" s="6">
-        <v>10</v>
-      </c>
-      <c r="G20" s="6">
-        <f t="shared" si="0"/>
-        <v>2500</v>
-      </c>
-      <c r="H20" s="6">
-        <f t="shared" si="1"/>
-        <v>2500</v>
-      </c>
-      <c r="I20" s="6">
-        <v>0</v>
-      </c>
-      <c r="J20" s="6">
-        <v>0</v>
-      </c>
-      <c r="K20" s="6">
-        <v>3</v>
-      </c>
-      <c r="L20" s="6">
-        <v>0</v>
-      </c>
-      <c r="M20" s="6">
-        <v>0</v>
-      </c>
-      <c r="N20" s="6">
-        <v>0</v>
-      </c>
-      <c r="O20" s="6">
-        <v>0</v>
-      </c>
-      <c r="P20" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="6">
-        <v>0</v>
-      </c>
-      <c r="R20" s="6">
-        <v>0</v>
-      </c>
-      <c r="S20" s="6">
-        <v>0</v>
-      </c>
-      <c r="T20" s="6">
-        <v>0</v>
-      </c>
+      <c r="H20" s="21"/>
     </row>
     <row r="21" spans="1:20">
-      <c r="A21" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="C21" s="6">
-        <v>56</v>
-      </c>
-      <c r="D21" s="6">
-        <v>7</v>
-      </c>
-      <c r="E21" s="6">
-        <v>2500</v>
-      </c>
-      <c r="F21" s="6">
-        <v>10</v>
-      </c>
-      <c r="G21" s="6">
-        <f t="shared" si="0"/>
-        <v>2500</v>
-      </c>
-      <c r="H21" s="6">
-        <f t="shared" si="1"/>
-        <v>2500</v>
-      </c>
-      <c r="I21" s="6">
-        <v>0</v>
-      </c>
-      <c r="J21" s="6">
-        <v>0</v>
-      </c>
-      <c r="K21" s="6">
-        <v>3</v>
-      </c>
-      <c r="L21" s="6">
-        <v>0</v>
-      </c>
-      <c r="M21" s="6">
-        <v>0</v>
-      </c>
-      <c r="N21" s="6">
-        <v>0</v>
-      </c>
-      <c r="O21" s="6">
-        <v>0</v>
-      </c>
-      <c r="P21" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="6">
-        <v>0</v>
-      </c>
-      <c r="R21" s="6">
-        <v>0</v>
-      </c>
-      <c r="S21" s="6">
-        <v>0</v>
-      </c>
-      <c r="T21" s="6">
-        <v>0</v>
-      </c>
+      <c r="H21" s="21"/>
     </row>
     <row r="22" spans="1:20">
-      <c r="A22" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="C22" s="6">
-        <v>58</v>
-      </c>
-      <c r="D22" s="6">
-        <v>7</v>
-      </c>
-      <c r="E22" s="6">
-        <v>2552</v>
-      </c>
-      <c r="F22" s="6">
-        <v>10</v>
-      </c>
-      <c r="G22" s="6">
-        <v>2552</v>
-      </c>
-      <c r="H22" s="6">
-        <v>2552</v>
-      </c>
-      <c r="I22" s="6">
-        <v>0</v>
-      </c>
-      <c r="J22" s="6">
-        <v>0</v>
-      </c>
-      <c r="K22" s="6">
-        <v>3.86</v>
-      </c>
-      <c r="L22" s="6">
-        <v>0</v>
-      </c>
-      <c r="M22" s="6">
-        <v>0</v>
-      </c>
-      <c r="N22" s="6">
-        <v>0</v>
-      </c>
-      <c r="O22" s="6">
-        <v>0</v>
-      </c>
-      <c r="P22" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="6">
-        <v>0</v>
-      </c>
-      <c r="R22" s="6">
-        <v>0</v>
-      </c>
-      <c r="S22" s="6">
-        <v>0</v>
-      </c>
-      <c r="T22" s="6">
-        <v>0</v>
-      </c>
+      <c r="H22" s="21"/>
     </row>
     <row r="23" spans="1:20">
-      <c r="A23" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="C23" s="6">
-        <v>42</v>
-      </c>
-      <c r="D23" s="6">
-        <v>8</v>
-      </c>
-      <c r="E23" s="6">
-        <v>1000</v>
-      </c>
-      <c r="F23" s="6">
-        <v>10</v>
-      </c>
-      <c r="G23" s="6">
-        <v>1000</v>
-      </c>
-      <c r="H23" s="6">
-        <v>1000</v>
-      </c>
-      <c r="I23" s="6">
-        <v>0</v>
-      </c>
-      <c r="J23" s="6">
-        <v>0</v>
-      </c>
-      <c r="K23" s="6">
-        <v>2</v>
-      </c>
-      <c r="L23" s="6">
-        <v>0</v>
-      </c>
-      <c r="M23" s="6">
-        <v>0</v>
-      </c>
-      <c r="N23" s="6">
-        <v>0</v>
-      </c>
-      <c r="O23" s="6">
-        <v>0</v>
-      </c>
-      <c r="P23" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="6">
-        <v>0</v>
-      </c>
-      <c r="R23" s="6">
-        <v>0</v>
-      </c>
-      <c r="S23" s="6">
-        <v>0</v>
-      </c>
-      <c r="T23" s="6">
-        <v>1</v>
-      </c>
+      <c r="H23" s="21"/>
     </row>
     <row r="24" spans="1:20">
-      <c r="A24" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="C24" s="6">
-        <v>14</v>
-      </c>
-      <c r="D24" s="6">
-        <v>8</v>
-      </c>
-      <c r="E24" s="6">
-        <v>1000</v>
-      </c>
-      <c r="F24" s="6">
-        <v>10</v>
-      </c>
-      <c r="G24" s="6">
-        <v>1000</v>
-      </c>
-      <c r="H24" s="6">
-        <v>1000</v>
-      </c>
-      <c r="I24" s="6">
-        <v>0</v>
-      </c>
-      <c r="J24" s="6">
-        <v>0</v>
-      </c>
-      <c r="K24" s="6">
-        <v>2.5</v>
-      </c>
-      <c r="L24" s="6">
-        <v>0</v>
-      </c>
-      <c r="M24" s="6">
-        <v>0</v>
-      </c>
-      <c r="N24" s="6">
-        <v>0</v>
-      </c>
-      <c r="O24" s="6">
-        <v>0</v>
-      </c>
-      <c r="P24" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="6">
-        <v>0</v>
-      </c>
-      <c r="R24" s="6">
-        <v>0</v>
-      </c>
-      <c r="S24" s="6">
-        <v>0</v>
-      </c>
-      <c r="T24" s="6">
-        <v>1</v>
-      </c>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
     </row>
     <row r="26" spans="1:20">
       <c r="F26" s="21"/>
@@ -8592,6 +8006,66 @@
       <c r="F28" s="21"/>
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+    </row>
+    <row r="33" spans="6:8">
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+    </row>
+    <row r="34" spans="6:8">
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="21"/>
+    </row>
+    <row r="35" spans="6:8">
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21"/>
+    </row>
+    <row r="36" spans="6:8">
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="21"/>
+    </row>
+    <row r="37" spans="6:8">
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="21"/>
+    </row>
+    <row r="38" spans="6:8">
+      <c r="F38" s="21"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="21"/>
+    </row>
+    <row r="39" spans="6:8">
+      <c r="F39" s="21"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="21"/>
+    </row>
+    <row r="40" spans="6:8">
+      <c r="F40" s="21"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
